--- a/tekpyramid_framework/testdata/Orgnztn.xlsx
+++ b/tekpyramid_framework/testdata/Orgnztn.xlsx
@@ -3,14 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr saveExternalLinkValues="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\eclipse-workspace\tekpyramid_framework\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F2D277-1622-41E5-B341-441BCE2E2FDA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{CBB5F47D-AB6A-48A3-8789-28972B6943A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15555" windowHeight="2955" tabRatio="869" activeTab="8" xr2:uid="{9FE44D04-65C9-4935-94B1-6AF9594EB7BA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9900" windowHeight="3810" tabRatio="869" firstSheet="3" activeTab="8" xr2:uid="{9FE44D04-65C9-4935-94B1-6AF9594EB7BA}"/>
   </bookViews>
   <sheets>
     <sheet name="org" sheetId="1" r:id="rId1"/>
@@ -22,11 +17,13 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
-    <sheet name="iphone" sheetId="18" r:id="rId11"/>
-    <sheet name="Sheet18" sheetId="19" r:id="rId12"/>
+    <sheet name="Sheet10" sheetId="20" r:id="rId10"/>
+    <sheet name="Sheet9" sheetId="10" r:id="rId11"/>
+    <sheet name="iphone" sheetId="18" r:id="rId12"/>
+    <sheet name="Sheet18" sheetId="19" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1:F10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -652,6 +649,18 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AA5190-17A3-4387-BC6A-FA9F96BC19B4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC195BFE-FBC2-4669-89F7-CE0419A7FB12}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -769,7 +778,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C4134B0-2C5D-4AE0-8352-1CD7676B457F}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -820,7 +829,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707370EF-4273-4707-8D53-8B36841A4EBB}">
   <dimension ref="A1"/>
   <sheetViews>
